--- a/LeadtoOppturnity.xlsx
+++ b/LeadtoOppturnity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED8871-784E-4A53-8DEB-E147957EEC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB18D48-E4B7-456B-9CD2-E99A317BCAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,6 +909,9 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
@@ -922,9 +925,6 @@
       </c>
       <c r="H20" t="s">
         <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
